--- a/kanabun/data/items/properties.xlsx
+++ b/kanabun/data/items/properties.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,100 +776,100 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ex:seiribango</t>
+          <t>ex:number</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'整理番号': 1024}</t>
+          <t>{'員数': 1023}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{True: 1024}</t>
+          <t>{True: 1023}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'literal': 1024}</t>
+          <t>{'literal': 1023}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ex:sequence</t>
+          <t>ex:seiribango</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'連続情報': 107}</t>
+          <t>{'整理番号': 1024}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{True: 107}</t>
+          <t>{True: 1024}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'literal': 107}</t>
+          <t>{'literal': 1024}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ex:shihai</t>
+          <t>ex:sequence</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'紙背': 1017}</t>
+          <t>{'連続情報': 107}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{True: 1017}</t>
+          <t>{True: 107}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'literal': 1017}</t>
+          <t>{'literal': 107}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ex:subject</t>
+          <t>ex:shihai</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'史料名': 1023}</t>
+          <t>{'紙背': 1017}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{True: 1023}</t>
+          <t>{True: 1017}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'literal': 1023}</t>
+          <t>{'literal': 1017}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ex:transcript</t>
+          <t>ex:size</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'transcript': 1023}</t>
+          <t>{'法量': 1023}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -886,64 +886,108 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ex:volume</t>
+          <t>ex:subject</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'紙数': 2039}</t>
+          <t>{'史料名': 1023}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{True: 2039}</t>
+          <t>{True: 1023}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'literal': 2039}</t>
+          <t>{'literal': 1023}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ex:yearCode</t>
+          <t>ex:transcript</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'西暦コード': 488}</t>
+          <t>{'transcript': 1023}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{True: 488}</t>
+          <t>{True: 1023}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'literal': 488}</t>
+          <t>{'literal': 1023}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>ex:volume</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{'紙数': 2039}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{True: 2039}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'literal': 2039}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ex:yearCode</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{'西暦コード': 488}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{True: 488}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'literal': 488}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>schema:url</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>{'url': 486}</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>{True: 486}</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>{'literal': 486}</t>
         </is>

--- a/kanabun/data/items/properties.xlsx
+++ b/kanabun/data/items/properties.xlsx
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'紙数': 2039}</t>
+          <t>{'紙数': 1024}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{True: 2039}</t>
+          <t>{True: 1024}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'literal': 2039}</t>
+          <t>{'literal': 1024}</t>
         </is>
       </c>
     </row>
